--- a/data/inData.xlsx
+++ b/data/inData.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12420" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="新增客户" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="修改客户" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="客户跟进新增" sheetId="2" r:id="rId3"/>
     <sheet name="新增客户1" sheetId="8" r:id="rId4"/>
-    <sheet name="删除客户跟进" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="登录模块" sheetId="4" r:id="rId5"/>
+    <sheet name="我的项目列表" sheetId="9" r:id="rId6"/>
+    <sheet name="项目列表" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="397">
   <si>
     <t>用例编号</t>
   </si>
@@ -2704,16 +2705,91 @@
 }</t>
   </si>
   <si>
+    <t>login001</t>
+  </si>
+  <si>
     <t>用户登陆</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>{"content":{"account":"15010224947","password":"fvm17fjkgJA=","device_model":null,"imei":"d833db7707863a97","clientType":"jianshang","loginIp":"true","isRepeat":"true"},"id":"972b037a-8c4a-4829-98dd-c5f0a6c5d02f","sessionId":"2c6f904b-c0cc-402e-a739-7a6977a54c67"}</t>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>{"mobile":"18926078113","password":"test2022"}</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
   <si>
     <t>{"success":true,"sessionId":"2c6f904b-c0cc-402e-a739-7a6977a54c67","id":null,"type":"page","target":"125641","params":{"device_ip":"192.168.1.212","badge":"[]","password":"fvm17fjkgJA=","clientType":"jianshang","device_model":"null","user_id":"512815c60f9c11eab63a0242ac160002","imei":"d833db7707863a97","position":"{\"code\":4403,\"name\":\"深圳\"}","isRepeat":"true","account":"15010224947"},"message":"登录成功！","data":{"badge":[],"user_id":"512815c60f9c11eab63a0242ac160002","position":{"code":"4403","name":"深圳"},"eventResult":null,"account":"15010224947"},"code":200,"skip":1,"refreshCache":false}</t>
+  </si>
+  <si>
+    <t>login002</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>响应预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>listproject001</t>
+  </si>
+  <si>
+    <t>我的项目</t>
+  </si>
+  <si>
+    <t>列出项目</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>页数和记录数为"1"</t>
+  </si>
+  <si>
+    <t>/element/projects</t>
+  </si>
+  <si>
+    <t>数据库里有项目</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"Authorization": token}</t>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":5}</t>
+  </si>
+  <si>
+    <t>请求成功，返回记录为5条</t>
+  </si>
+  <si>
+    <t>{"meta":{"current_page":1}}</t>
+  </si>
+  <si>
+    <t>listproject002</t>
+  </si>
+  <si>
+    <t>项目列表</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2802,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2740,6 +2816,23 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2927,7 +3020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2937,6 +3030,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,10 +3340,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3253,142 +3352,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3396,10 +3513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3408,22 +3522,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3782,685 +3896,685 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="30.775" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.8916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.775" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="30.775" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="17.8916666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.775" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.775" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="200" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+    <row r="2" s="9" customFormat="1" ht="200" customHeight="1" spans="1:8">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A5" s="2">
+    <row r="5" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+    <row r="7" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:10">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="180" customHeight="1" spans="1:8">
-      <c r="A8" s="2">
+    <row r="8" s="9" customFormat="1" ht="180" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="150" customHeight="1" spans="1:8">
-      <c r="A9" s="2">
+    <row r="9" s="9" customFormat="1" ht="150" customHeight="1" spans="1:8">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="130" customHeight="1" spans="1:8">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" s="9" customFormat="1" ht="130" customHeight="1" spans="1:8">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A11" s="2">
+    <row r="11" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="12" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:8">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="120" hidden="1" customHeight="1" spans="1:7">
-      <c r="A13" s="2">
+    <row r="13" s="9" customFormat="1" ht="120" hidden="1" customHeight="1" spans="1:7">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="120" hidden="1" customHeight="1" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="14" s="9" customFormat="1" ht="120" hidden="1" customHeight="1" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A17" s="2">
+    <row r="17" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="70.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19" s="9" customFormat="1" ht="70.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21" s="9" customFormat="1" ht="100.05" hidden="1" customHeight="1" spans="1:6">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" s="3" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
-      <c r="A72" s="2"/>
+    <row r="22" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A22" s="8"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A23" s="8"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A24" s="8"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A25" s="8"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A26" s="8"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A29" s="8"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A31" s="8"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A32" s="8"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A33" s="8"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A34" s="8"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A35" s="8"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A36" s="8"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A37" s="8"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A38" s="8"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A39" s="8"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A40" s="8"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A41" s="8"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A42" s="8"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A43" s="8"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A44" s="8"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A45" s="8"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:3">
+      <c r="A46" s="8"/>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A51" s="8"/>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A52" s="8"/>
+    </row>
+    <row r="53" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A53" s="8"/>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A65" s="8"/>
+    </row>
+    <row r="66" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A70" s="8"/>
+    </row>
+    <row r="71" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A71" s="8"/>
+    </row>
+    <row r="72" s="9" customFormat="1" ht="100.05" customHeight="1" spans="1:1">
+      <c r="A72" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4479,552 +4593,552 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="30.775" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.8916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="30.775" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="17.8916666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.775" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="300" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="100.05" customHeight="1" spans="2:7">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="100.05" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="120" customHeight="1" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="120" customHeight="1" spans="2:7">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="70.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" ht="100.05" hidden="1" customHeight="1" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C23" s="5"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C24" s="5"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C25" s="5"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C26" s="5"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C27" s="5"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C28" s="5"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C30" s="5"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C31" s="5"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C32" s="5"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C33" s="5"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C34" s="5"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C35" s="5"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C36" s="5"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C37" s="5"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C38" s="5"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C39" s="5"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C40" s="5"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C41" s="5"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C42" s="5"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C43" s="5"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C44" s="5"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C45" s="5"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C46" s="5"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" ht="100.05" customHeight="1"/>
     <row r="48" ht="100.05" customHeight="1"/>
@@ -5070,398 +5184,398 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="30.775" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.8916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.775" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="30.775" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="17.8916666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.775" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.775" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="100.05" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" ht="100.05" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="100.05" hidden="1" customHeight="1" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="150" customHeight="1" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="3:7">
-      <c r="C10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="F10"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="3:7">
-      <c r="C11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="3:7">
-      <c r="C12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="120" customHeight="1" spans="3:7">
-      <c r="C13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="120" customHeight="1" spans="3:7">
-      <c r="C14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" ht="70.05" customHeight="1" spans="3:6">
-      <c r="C19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C23" s="5"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C24" s="5"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C25" s="5"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C26" s="5"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C27" s="5"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C28" s="5"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C30" s="5"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C31" s="5"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C32" s="5"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C33" s="5"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C34" s="5"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C35" s="5"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C36" s="5"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C37" s="5"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C38" s="5"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C39" s="5"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C40" s="5"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C41" s="5"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C42" s="5"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C43" s="5"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C44" s="5"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C45" s="5"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C46" s="5"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" ht="100.05" customHeight="1"/>
     <row r="48" ht="100.05" customHeight="1"/>
@@ -5522,7 +5636,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -5548,22 +5662,22 @@
       <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5574,25 +5688,25 @@
       <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" ht="229.5" spans="1:8">
       <c r="A4">
@@ -5601,22 +5715,22 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5627,22 +5741,22 @@
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="G5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" ht="148.5" spans="1:8">
       <c r="A6">
@@ -5651,22 +5765,22 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="G6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="148.5" spans="1:8">
       <c r="A7">
@@ -5675,22 +5789,22 @@
       <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="G7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="175.5" spans="1:8">
       <c r="A8">
@@ -5699,22 +5813,22 @@
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5725,22 +5839,22 @@
       <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5751,22 +5865,22 @@
       <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5777,22 +5891,22 @@
       <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5803,22 +5917,22 @@
       <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5829,22 +5943,22 @@
       <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5855,22 +5969,22 @@
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5881,22 +5995,22 @@
       <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5907,22 +6021,22 @@
       <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5933,22 +6047,22 @@
       <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5959,22 +6073,22 @@
       <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5985,22 +6099,22 @@
       <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6011,22 +6125,22 @@
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6037,22 +6151,22 @@
       <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6063,22 +6177,22 @@
       <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6089,22 +6203,22 @@
       <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6115,22 +6229,22 @@
       <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6141,22 +6255,22 @@
       <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6167,22 +6281,22 @@
       <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6193,22 +6307,22 @@
       <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6219,22 +6333,22 @@
       <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6245,22 +6359,22 @@
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6271,22 +6385,22 @@
       <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6297,22 +6411,22 @@
       <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6323,22 +6437,22 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6349,22 +6463,22 @@
       <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="9" t="s">
+      <c r="G33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6375,22 +6489,22 @@
       <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6401,22 +6515,22 @@
       <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="9" t="s">
+      <c r="G35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6427,22 +6541,22 @@
       <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="G36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6453,22 +6567,22 @@
       <c r="B37" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6479,22 +6593,22 @@
       <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="9" t="s">
+      <c r="G38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6505,22 +6619,22 @@
       <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D39" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="14" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6531,22 +6645,22 @@
       <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6557,22 +6671,22 @@
       <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="G41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6583,22 +6697,22 @@
       <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D42" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="9" t="s">
+      <c r="G42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6609,22 +6723,22 @@
       <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="9" t="s">
+      <c r="G43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6635,22 +6749,22 @@
       <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="9" t="s">
+      <c r="G44" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6661,22 +6775,22 @@
       <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6687,22 +6801,22 @@
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6713,22 +6827,22 @@
       <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="G47" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6739,22 +6853,22 @@
       <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6765,22 +6879,22 @@
       <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6791,22 +6905,22 @@
       <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="G50" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6817,22 +6931,22 @@
       <c r="B51" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D51" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6843,22 +6957,22 @@
       <c r="B52" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="14" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6869,22 +6983,22 @@
       <c r="B53" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="14" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6895,22 +7009,22 @@
       <c r="B54" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="G54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6921,22 +7035,22 @@
       <c r="B55" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="9" t="s">
+      <c r="G55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6947,22 +7061,22 @@
       <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="G56" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6973,22 +7087,22 @@
       <c r="B57" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="G57" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6999,22 +7113,22 @@
       <c r="B58" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58" s="9" t="s">
+      <c r="G58" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7025,22 +7139,22 @@
       <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D59" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="G59" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7051,22 +7165,22 @@
       <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D60" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="G60" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7077,22 +7191,22 @@
       <c r="B61" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D61" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="G61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="14" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7103,22 +7217,22 @@
       <c r="B62" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D62" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="G62" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="14" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7129,22 +7243,22 @@
       <c r="B63" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>275</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7155,22 +7269,22 @@
       <c r="B64" t="s">
         <v>273</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D64" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7181,22 +7295,22 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="G65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7207,22 +7321,22 @@
       <c r="B66" t="s">
         <v>273</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D66" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="G66" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7233,22 +7347,22 @@
       <c r="B67" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D67" t="s">
         <v>275</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H67" s="9" t="s">
+      <c r="G67" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7259,19 +7373,19 @@
       <c r="B68" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D68" t="s">
         <v>275</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7282,19 +7396,19 @@
       <c r="B69" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D69" t="s">
         <v>275</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7305,19 +7419,19 @@
       <c r="B70" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D70" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7328,19 +7442,19 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D71" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7351,19 +7465,19 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D72" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7374,19 +7488,19 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D73" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7397,19 +7511,19 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D74" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7420,19 +7534,19 @@
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D75" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7443,19 +7557,19 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D76" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7466,19 +7580,19 @@
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D77" t="s">
         <v>293</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7489,19 +7603,19 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D78" t="s">
         <v>293</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7512,19 +7626,19 @@
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D79" t="s">
         <v>293</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7535,19 +7649,19 @@
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D80" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7558,19 +7672,19 @@
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
         <v>293</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7581,19 +7695,19 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D82" t="s">
         <v>293</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7604,19 +7718,19 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D83" t="s">
         <v>293</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7627,19 +7741,19 @@
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D84" t="s">
         <v>293</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7650,19 +7764,19 @@
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D85" t="s">
         <v>293</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7673,19 +7787,19 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D86" t="s">
         <v>293</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7696,19 +7810,19 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D87" t="s">
         <v>293</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7719,19 +7833,19 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D88" t="s">
         <v>293</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7742,19 +7856,19 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D89" t="s">
         <v>293</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7765,19 +7879,19 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D90" t="s">
         <v>293</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7788,19 +7902,19 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D91" t="s">
         <v>293</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7811,19 +7925,19 @@
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D92" t="s">
         <v>293</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7834,19 +7948,19 @@
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D93" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7857,19 +7971,19 @@
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D94" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7880,19 +7994,19 @@
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D95" t="s">
         <v>293</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7903,19 +8017,19 @@
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D96" t="s">
         <v>293</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7926,19 +8040,19 @@
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D97" t="s">
         <v>293</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7949,19 +8063,19 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D98" t="s">
         <v>293</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7972,19 +8086,19 @@
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D99" t="s">
         <v>293</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7995,19 +8109,19 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D100" t="s">
         <v>293</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8018,19 +8132,19 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D101" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8041,19 +8155,19 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D102" t="s">
         <v>293</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8064,19 +8178,19 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D103" t="s">
         <v>293</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8087,19 +8201,19 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D104" t="s">
         <v>293</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8110,19 +8224,19 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D105" t="s">
         <v>293</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8133,19 +8247,19 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D106" t="s">
         <v>293</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8156,19 +8270,19 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D107" t="s">
         <v>293</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8179,19 +8293,19 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D108" t="s">
         <v>293</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8202,19 +8316,19 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D109" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8225,19 +8339,19 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D110" t="s">
         <v>293</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8248,19 +8362,19 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D111" t="s">
         <v>293</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8271,19 +8385,19 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D112" t="s">
         <v>293</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8294,19 +8408,19 @@
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D113" t="s">
         <v>293</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8317,19 +8431,19 @@
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D114" t="s">
         <v>293</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8340,19 +8454,19 @@
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D115" t="s">
         <v>293</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8363,19 +8477,19 @@
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D116" t="s">
         <v>293</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8386,19 +8500,19 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D117" t="s">
         <v>293</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8409,19 +8523,19 @@
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D118" t="s">
         <v>293</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8432,19 +8546,19 @@
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D119" t="s">
         <v>293</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8455,19 +8569,19 @@
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D120" t="s">
         <v>293</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8478,19 +8592,19 @@
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D121" t="s">
         <v>293</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8501,19 +8615,19 @@
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D122" t="s">
         <v>293</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8524,19 +8638,19 @@
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D123" t="s">
         <v>293</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8547,19 +8661,19 @@
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D124" t="s">
         <v>293</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8570,19 +8684,19 @@
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D125" t="s">
         <v>293</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8593,19 +8707,19 @@
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D126" t="s">
         <v>293</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8616,19 +8730,19 @@
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D127" t="s">
         <v>293</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8639,19 +8753,19 @@
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D128" t="s">
         <v>293</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8662,19 +8776,19 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D129" t="s">
         <v>293</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8685,19 +8799,19 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D130" t="s">
         <v>293</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8708,19 +8822,19 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D131" t="s">
         <v>293</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8731,19 +8845,19 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D132" t="s">
         <v>293</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8754,19 +8868,19 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D133" t="s">
         <v>293</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8777,19 +8891,19 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D134" t="s">
         <v>293</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8800,19 +8914,19 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D135" t="s">
         <v>293</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8823,19 +8937,19 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D136" t="s">
         <v>293</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8846,19 +8960,19 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>293</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8869,19 +8983,19 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D138" t="s">
         <v>293</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8898,10 +9012,10 @@
       <c r="D139" t="s">
         <v>362</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8918,13 +9032,13 @@
       <c r="D140" t="s">
         <v>362</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H140" s="14" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9070,28 +9184,28 @@
   <sheetPr/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="57" style="3" customWidth="1"/>
-    <col min="7" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16" style="8" customWidth="1"/>
+    <col min="2" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="57" style="9" customWidth="1"/>
+    <col min="7" max="8" width="16" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="25.5" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -9111,161 +9225,161 @@
       </c>
     </row>
     <row r="2" ht="120" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" ht="100.05" customHeight="1" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" ht="100.05" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>371</v>
+      <c r="G3" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="70.05" customHeight="1" spans="3:6">
-      <c r="C7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="100.05" customHeight="1" spans="3:6">
-      <c r="C9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C10" s="5"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C11" s="5"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C12" s="5"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C13" s="5"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C14" s="5"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C15" s="5"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C16" s="5"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C17" s="5"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C18" s="5"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C19" s="5"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C20" s="5"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C21" s="5"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C23" s="5"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C24" s="5"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C25" s="5"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C26" s="5"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C27" s="5"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C28" s="5"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C30" s="5"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C31" s="5"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C32" s="5"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C33" s="5"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="100.05" customHeight="1" spans="3:3">
-      <c r="C34" s="5"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="100.05" customHeight="1"/>
     <row r="36" ht="100.05" customHeight="1"/>
@@ -9302,14 +9416,223 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="27.125" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/inData.xlsx
+++ b/data/inData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="401">
   <si>
     <t>用例编号</t>
   </si>
@@ -2790,6 +2790,18 @@
   </si>
   <si>
     <t>项目列表</t>
+  </si>
+  <si>
+    <t>update001</t>
+  </si>
+  <si>
+    <t>修改项目</t>
+  </si>
+  <si>
+    <t>/element/project/350</t>
+  </si>
+  <si>
+    <t>{"name":"蜂喔新标签（勿删，唐祺峰009）","description":"蜂喔新标签2","title":"蜂喔新标签2","clientType":"1"}</t>
   </si>
 </sst>
 </file>
@@ -9418,8 +9430,8 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -9565,13 +9577,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -9632,6 +9644,26 @@
         <v>394</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/inData.xlsx
+++ b/data/inData.xlsx
@@ -2801,7 +2801,7 @@
     <t>/element/project/350</t>
   </si>
   <si>
-    <t>{"name":"蜂喔新标签（勿删，唐祺峰009）","description":"蜂喔新标签2","title":"蜂喔新标签2","clientType":"1"}</t>
+    <t>{"name":"蜂喔新标签（勿删，唐祺峰2022）","description":"蜂喔新标签3","title":"蜂喔新标签3","clientType":"1"}</t>
   </si>
 </sst>
 </file>
